--- a/mapping/ChemCatChem_REX.xlsx
+++ b/mapping/ChemCatChem_REX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>ChemCatChem_IRI</t>
   </si>
@@ -104,6 +104,27 @@
   </si>
   <si>
     <t>{'label': 'rearrangement'}</t>
+  </si>
+  <si>
+    <t>['A reaction in which two or more unsaturated molecules (or parts of the same molecule) combine with the formation of a cyclic adduct in which there is a net reduction of the bond multiplicity.']</t>
+  </si>
+  <si>
+    <t>['The transfer of an electron from one molecular entity to another, or between two localized sites in the same molecular entity.']</t>
+  </si>
+  <si>
+    <t>['The process of converting a monomer or a mixture of monomers into an oligomer.']</t>
+  </si>
+  <si>
+    <t>['A polymerization in which a cyclic monomer yields a monomeric unit which is acyclic or contains fewer cycles than the monomer.']</t>
+  </si>
+  <si>
+    <t>['Polymerization in which a copolymer is formed.']</t>
+  </si>
+  <si>
+    <t>['Oxidation reactions induced by light.']</t>
+  </si>
+  <si>
+    <t>['A chemical degradation reaction that is caused by thermal energy. The term pyrolysis generally refers to an inert environment.']</t>
   </si>
   <si>
     <t>[]</t>
@@ -537,7 +558,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -557,7 +578,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -577,7 +598,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -597,7 +618,7 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -617,7 +638,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -637,7 +658,7 @@
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -657,7 +678,7 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
